--- a/test/templates/test-nested-arrays.xlsx
+++ b/test/templates/test-nested-arrays.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d\kant\GitHub\xlsx-template\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74141FC4-7A85-424D-A566-2EBE2A1DCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>${table:sales.payments}</t>
+    <t>{table:sales.payments}</t>
   </si>
 </sst>
 </file>
@@ -102,11 +103,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -445,7 +446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
